--- a/Documentação/Planilhas/View_MIS.xlsx
+++ b/Documentação/Planilhas/View_MIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="524">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -570,9 +570,6 @@
   </si>
   <si>
     <t>vw_pedidos_aprovados_reprovados</t>
-  </si>
-  <si>
-    <t>mis_ods</t>
   </si>
   <si>
     <t>bkp</t>
@@ -756,14 +753,6 @@
   </si>
   <si>
     <t>mis_relatorio..ods_relatorio_devolucao_instancia</t>
-  </si>
-  <si>
-    <t>id_categoria
-fl_forcado</t>
-  </si>
-  <si>
-    <t>isnull(b.id_categoria,'XXX') as id_categoria,
-isnull(b.fl_forcado,'I') as fl_forcado</t>
   </si>
   <si>
     <t>fact_fatdev_2008_2009
@@ -805,90 +794,884 @@
 and NR_FILIAL not in (1,3,10,11)</t>
   </si>
   <si>
-    <t>dbo.ods_taxa_aprovacao
-dbo.dim_meio_pagamento</t>
-  </si>
-  <si>
-    <t>ds_meio_pagamento
-ds_canal
-QTDE_PARCELAS
-TIPO_PAGTO
-NR_BANCO</t>
+    <t>ods_product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds_product_type </t>
+  </si>
+  <si>
+    <t>ds_product_type = 'Produto'</t>
+  </si>
+  <si>
+    <t>fact_orders_today</t>
+  </si>
+  <si>
+    <t>nr_id_unidade_negocio in (2,6,11)</t>
+  </si>
+  <si>
+    <t>ods_ordersweb</t>
+  </si>
+  <si>
+    <t>dbo.ods_ordersweb
+dim_dispositivo</t>
+  </si>
+  <si>
+    <t>ods_ordersweb
+dim_dispositivo</t>
+  </si>
+  <si>
+    <t>ods_orderweb.ynRegistroValido</t>
+  </si>
+  <si>
+    <t>ds_product_type</t>
+  </si>
+  <si>
+    <t>where ds_product_type = 'Produto'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHERE (ynRegistroValido = 0)</t>
+  </si>
+  <si>
+    <t>ods_purchase</t>
+  </si>
+  <si>
+    <t>ds_stts_ped, ds_stts_item</t>
+  </si>
+  <si>
+    <t>dbo.ods_estoque_deposito</t>
+  </si>
+  <si>
+    <t>id_tipodeposito</t>
+  </si>
+  <si>
+    <t>fact_ruptura_vitrine</t>
+  </si>
+  <si>
+    <t>WHERE yn_esta_visivel = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yn_esta_visivel</t>
+  </si>
+  <si>
+    <t>ods_stock</t>
+  </si>
+  <si>
+    <t>nr_item_sku</t>
+  </si>
+  <si>
+    <t>where s.nr_item_sku not in(1000007982,2540485,2540484)</t>
+  </si>
+  <si>
+    <t>ds_status_titulo</t>
+  </si>
+  <si>
+    <t>fact_financiamento_estoque</t>
+  </si>
+  <si>
+    <t>case when ds_status_titulo = 'L' then
+ isnull(a.dt_liquidacao, a.dt_venc)
+else a.dt_venc end as dt_venc</t>
+  </si>
+  <si>
+    <t>ynRegistroValido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where ynRegistroValido = 0 </t>
+  </si>
+  <si>
+    <t>dt_orders</t>
+  </si>
+  <si>
+    <t>Case when dt_orders &lt;= 20110401 then 'SITE'
+else  case when nr_canal_venda = 9 then 'TVEN' else 'SITE' end end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbo.ods_taxa_aprovacao
+</t>
   </si>
   <si>
     <t>(CASE a.ds_meio_pagamento 
  WHEN 'Livre de Debito' THEN 'Livre de Débito' 
- WHEN 'Debito/transferencia' THEN 'Débito/Transferência' ELSE a.ds_meio_pagamento END)
-(CASE a.ds_canal WHEN 'TVEN' THEN 'Televendas' ELSE a.ds_canal END)
-AND b.QTDE_PARCELAS = 1 
-AND b.TIPO_PAGTO = 'Comum' 
-AND b.NR_BANCO = 'Não se aplica'</t>
-  </si>
-  <si>
-    <t>ods_product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ds_product_type </t>
-  </si>
-  <si>
-    <t>ds_product_type = 'Produto'</t>
-  </si>
-  <si>
-    <t>fact_orders_today</t>
-  </si>
-  <si>
-    <t>nr_id_unidade_negocio in (2,6,11)</t>
-  </si>
-  <si>
-    <t>ods_ordersweb</t>
-  </si>
-  <si>
-    <t>dbo.ods_ordersweb
-dim_dispositivo</t>
-  </si>
-  <si>
-    <t>ods_ordersweb
-dim_dispositivo</t>
-  </si>
-  <si>
-    <t>CASE WHEN EXISTS (select 1 from dim_dispositivo dis where ods.nr_id_dispositivo = dis.nr_id_device and (dis.yn_mobile = 'Sim' or dis.yn_smattv = 'Sim' or dis.yn_tablet = 'Sim' or ods.nr_canal_venda = 3)) THEN 1 ELSE 0 END AS YN_MOBILE
-CASE WHEN nr_id_unidade_negocio in (2, 6, 11) and nr_contrato_b2b &gt; 0 THEN nr_client ELSE 0 END AS nr_id_terceiro
-  WHERE (ynRegistroValido = 0)</t>
+ WHEN 'Debito/transferencia' THEN 'Débito/Transferência' ELSE a.ds_meio_pagamento END)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds_meio_pagamento
+</t>
+  </si>
+  <si>
+    <t>ds_canal</t>
+  </si>
+  <si>
+    <t>(CASE a.ds_canal WHEN 'TVEN' THEN 'Televendas' ELSE a.ds_canal END)</t>
+  </si>
+  <si>
+    <t>dbo.dim_meio_pagamento</t>
   </si>
   <si>
     <t>dbo.ods_ordersweb. nr_canal_venda
 dim_dispositivo.yn_mobile
 dim_dipositivo.yn_smattv
-dim_dipositivo.yn_tablet
-ods_ordersweb.nr_id_unidade_negocio
-ods_ordersweb.nr_contrato_b2b
-ods_orderweb.ynRegistroValido</t>
-  </si>
-  <si>
-    <t>CASE WHEN nr_id_unidade_negocio in (2, 6, 11)  and nr_contrato_b2b &gt; 0 THEN nr_client ELSE 0 END AS nr_id_terceiro
-CASE WHEN EXISTS (select 1 from dim_dispositivo dis where ods.nr_id_dispositivo = dis.nr_id_device and (dis.yn_mobile = 'Sim' or dis.yn_smattv = 'Sim' or dis.yn_tablet = 'Sim' or ods.nr_canal_venda = 3)) THEN 1 ELSE 0 END AS YN_MOBILE
-  WHERE (ynRegistroValido = 0)</t>
-  </si>
-  <si>
-    <t>ods_ordersweb.nr_id_unidade_negocio
-ods_ordersweb.nr_contrato_b2b
-dbo.ods_ordersweb. nr_canal_venda
-dim_dispositivo.yn_mobile
-dim_dipositivo.yn_smattv
-dim_dipositivo.yn_tablet
-ods_orderweb.ynRegistroValido</t>
-  </si>
-  <si>
-    <t>ods_orderweb.ynRegistroValido</t>
-  </si>
-  <si>
-    <t>ds_product_type</t>
-  </si>
-  <si>
-    <t>where ds_product_type = 'Produto'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WHERE (ynRegistroValido = 0)</t>
+dim_dipositivo.yn_tablet</t>
+  </si>
+  <si>
+    <t>CASE WHEN EXISTS (select 1 from dim_dispositivo dis where ods.nr_id_dispositivo = dis.nr_id_device and (dis.yn_mobile = 'Sim' or dis.yn_smattv = 'Sim' or dis.yn_tablet = 'Sim' or ods.nr_canal_venda = 3)) THEN 1 ELSE 0 END AS YN_MOBILE</t>
+  </si>
+  <si>
+    <t>dbo.ods_ordersweb</t>
+  </si>
+  <si>
+    <t>CASE WHEN nr_id_unidade_negocio in (2, 6, 11) and nr_contrato_b2b &gt; 0 THEN nr_client ELSE 0 END AS nr_id_terceiro</t>
+  </si>
+  <si>
+    <t>nr_id_unidade_negocio
+nr_contrato_b2b</t>
+  </si>
+  <si>
+    <t>WHERE (ynRegistroValido = 0)</t>
+  </si>
+  <si>
+    <t>id_categoria</t>
+  </si>
+  <si>
+    <t>fl_forcado</t>
+  </si>
+  <si>
+    <t>isnull(b.id_categoria,'XXX') as id_categoria,</t>
+  </si>
+  <si>
+    <t>isnull(b.fl_forcado,'I') as fl_forcado</t>
+  </si>
+  <si>
+    <t>QTDE_PARCELAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND b.QTDE_PARCELAS = 1 </t>
+  </si>
+  <si>
+    <t>TIPO_PAGTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND b.TIPO_PAGTO = 'Comum' </t>
+  </si>
+  <si>
+    <t>NR_BANCO</t>
+  </si>
+  <si>
+    <t>AND b.NR_BANCO = 'Não se aplica'</t>
+  </si>
+  <si>
+    <t>CASE WHEN nr_id_unidade_negocio in (2, 6, 11)  and nr_contrato_b2b &gt; 0 THEN nr_client ELSE 0 END AS nr_id_terceiro</t>
+  </si>
+  <si>
+    <t>case when ds_stts_ped = 'A' and ds_stts_item = 'A' then sum(vl_cmv)/count(a.nr_item_sku) 
+else sum(0) end as vl_cmv</t>
+  </si>
+  <si>
+    <t>id_filial</t>
+  </si>
+  <si>
+    <t>AND oed.id_tipodeposito = 'WN'</t>
+  </si>
+  <si>
+    <t>AND oed.id_filial &lt;&gt; 3</t>
+  </si>
+  <si>
+    <t>case when a.vl_financiado = 0 then 
+ 2  else case when a.vl_financiado &lt; 0 then 
+  0  else 1 end end as fl_desfinanciado</t>
+  </si>
+  <si>
+    <t>fl_desfinanciado</t>
+  </si>
+  <si>
+    <t>case when ds_status_titulo = 'L' then</t>
+  </si>
+  <si>
+    <t>ds_stts_ped</t>
+  </si>
+  <si>
+    <t>where ds_stts_ped = 'A'</t>
+  </si>
+  <si>
+    <t>ds_stts_item</t>
+  </si>
+  <si>
+    <t>and ds_stts_item = 'A'</t>
+  </si>
+  <si>
+    <t>nr_cia</t>
+  </si>
+  <si>
+    <t>and nr_cia = 1</t>
+  </si>
+  <si>
+    <t>ds_flagbloqueio</t>
+  </si>
+  <si>
+    <t>case when a.ds_flagbloqueio = 1 then 'Sim' else 'Não' end as ds_flagbloqueio</t>
+  </si>
+  <si>
+    <t>ds_flagprepagto</t>
+  </si>
+  <si>
+    <t>case when a.ds_flagprepagto = 1 then 'Sim' else 'Não' end as ds_flagprepagto</t>
+  </si>
+  <si>
+    <t>case when a.fl_desfinanciado = 1 then 'Sim' 
+  when a.fl_desfinanciado = 2 then 'Indiferente'  
+  else 'Não' end as fl_desfinanciado</t>
+  </si>
+  <si>
+    <t>fl_estoque</t>
+  </si>
+  <si>
+    <t>case when a.fl_estoque = 1 then 'Sim' else 'Não' end as fl_estoque
+where  a.fl_estoque = 1</t>
+  </si>
+  <si>
+    <t>DT_DATA_FATURAMENTO_PEDIDO
+ds_canal_venda</t>
+  </si>
+  <si>
+    <t>case when DT_DATA_FATURAMENTO_PEDIDO &lt; 20110401 then 'SITE'
+Else  case 
+ when ds_canal_venda = 'Televendas' then 'TVEN'  else 'SITE'  end  End as ds_canal</t>
+  </si>
+  <si>
+    <t>YN_NOTA_CANCELADA</t>
+  </si>
+  <si>
+    <t>where YN_NOTA_CANCELADA = 0</t>
+  </si>
+  <si>
+    <t>nr_fatdev</t>
+  </si>
+  <si>
+    <t>and nr_fatdev = 1</t>
+  </si>
+  <si>
+    <t>and nr_id_unidade_negocio in (1,4,5,6,7,8,9,2,11,12)</t>
+  </si>
+  <si>
+    <t>dt_data_faturamento_pedido</t>
+  </si>
+  <si>
+    <t>and dt_data_faturamento_pedido &lt; 20120101</t>
+  </si>
+  <si>
+    <t>and ds_product_type = 'Produto' -- só produto</t>
+  </si>
+  <si>
+    <t>and nr_meio_pagto != 3 -- sem o meio de pagamento "livre de débito"</t>
+  </si>
+  <si>
+    <t>nr_meio_pagto</t>
+  </si>
+  <si>
+    <t>ds_canal_venda</t>
+  </si>
+  <si>
+    <t>case   when ds_canal_venda = 'Televendas' 
+ then 'TVEN'  else 'SITE' end  as  ds_canal</t>
+  </si>
+  <si>
+    <t>DT_DATA_FATURAMENTO_PEDIDO</t>
+  </si>
+  <si>
+    <t>and DT_DATA_FATURAMENTO_PEDIDO &gt;= 20100401</t>
+  </si>
+  <si>
+    <t>MIS_ODS</t>
+  </si>
+  <si>
+    <t>[log].ods_fluxo_pedidos_entrada</t>
+  </si>
+  <si>
+    <t>WHERE     (a.nr_dt_emissao &lt;&gt; 20121231)</t>
+  </si>
+  <si>
+    <t>nr_dt_emissao</t>
+  </si>
+  <si>
+    <t>mis_ods.fin.ods_sige_titulo_pagamento</t>
+  </si>
+  <si>
+    <t>DS_FLAGPREPAGTO</t>
+  </si>
+  <si>
+    <t>CASE WHEN nr_num_documento IS NULL THEN 'N' ELSE 'S' END AS DS_FLAGPREPAGTO</t>
+  </si>
+  <si>
+    <t>ds_sit_pagelet</t>
+  </si>
+  <si>
+    <t>where ds_sit_pagelet in ('C','P','M')</t>
+  </si>
+  <si>
+    <t>and ds_situacao = 'A'</t>
+  </si>
+  <si>
+    <t>ds_situacao</t>
+  </si>
+  <si>
+    <t>mis_Dw..ods_sige_titulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case when ref.ds_flagbloqueio = 0 then 'N' 
+  when ref.ds_flagbloqueio = 1 then 'S' 
+  end as ds_flagbloqueio_ref, </t>
+  </si>
+  <si>
+    <t>and ref.ds_situacao = 'A'</t>
+  </si>
+  <si>
+    <t>mis_Dw..ods_sige_titulo_movimento</t>
+  </si>
+  <si>
+    <t>id_transacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and b.id_transacao = 7</t>
+  </si>
+  <si>
+    <t>and b.ds_situacao = 'A'</t>
+  </si>
+  <si>
+    <t>and a.id_documento in ('FA','GA')</t>
+  </si>
+  <si>
+    <t>id_documento</t>
+  </si>
+  <si>
+    <t>mis_shared_dimension.dim.ods_produto</t>
+  </si>
+  <si>
+    <t>ds_status</t>
+  </si>
+  <si>
+    <t>and d.ds_status = 'A'</t>
+  </si>
+  <si>
+    <t>mis_dw..ods_unidade_negocio</t>
+  </si>
+  <si>
+    <t>where c.nr_id_unidade_negocio in (1,5,8)</t>
+  </si>
+  <si>
+    <t>mis_dw..ods_product_loja</t>
+  </si>
+  <si>
+    <t>and b.ds_composicao_produto = 'Kit'</t>
+  </si>
+  <si>
+    <t>ds_composicao_produto</t>
+  </si>
+  <si>
+    <t>mis_dw..ods_sige_titulo_abatimento</t>
+  </si>
+  <si>
+    <t>where a.id_tipo_abatimento = 1</t>
+  </si>
+  <si>
+    <t>id_tipo_abatimento</t>
+  </si>
+  <si>
+    <t>where a.id_tipo_abatimento in(15,16,5)</t>
+  </si>
+  <si>
+    <t>where a.id_tipo_abatimento = 2</t>
+  </si>
+  <si>
+    <t>mis_staging.multi.stg_colecao_elegiveis</t>
+  </si>
+  <si>
+    <t>ds_depto</t>
+  </si>
+  <si>
+    <t>WHERE   ds_depto not in ('Telefones &amp; Celulares','Livros', 'DVDs e Blu-Ray')</t>
+  </si>
+  <si>
+    <t>ds_setor</t>
+  </si>
+  <si>
+    <t>and ds_setor not in ('Barracas','Mesas e Móveis para Atividades','Forno a gas','Playground')</t>
+  </si>
+  <si>
+    <t>ds_familia</t>
+  </si>
+  <si>
+    <t>and ds_familia not in ('Cadeirões', 'Cadeiras para Automóveis', 'Cobertor', 'Banheiras', 'Caixas de Som', 'Máquinas de Gelo', 'Enceradeiras')</t>
+  </si>
+  <si>
+    <t>elegivel_gg</t>
+  </si>
+  <si>
+    <t>CASE WHEN (Case When nr_altura &gt; nr_largura And nr_altura &gt; nr_comprimento Then nr_altura
+             When nr_largura &gt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.55 AND 
+             (Case When (nr_altura &gt;= nr_largura And nr_altura &lt;= nr_comprimento) Or (nr_altura &gt;= nr_comprimento And nr_altura &lt;= nr_largura) Then nr_altura
+   When (nr_largura &gt;= nr_altura And nr_largura &lt;= nr_comprimento) Or (nr_largura &gt;= nr_comprimento And nr_largura &lt;= nr_altura) Then nr_largura
+   else nr_comprimento  end) &lt;= 0.28 AND
+             (Case When nr_altura &lt; nr_largura And nr_altura &lt; nr_comprimento Then nr_altura
+             When nr_largura &lt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.25 THEN 'GG' ELSE 'NE' END AS elegivel_gg</t>
+  </si>
+  <si>
+    <t>CASE WHEN (Case When nr_altura &gt; nr_largura And nr_altura &gt; nr_comprimento Then nr_altura
+             When nr_largura &gt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.55 AND 
+             (Case When (nr_altura &gt;= nr_largura And nr_altura &lt;= nr_comprimento) Or (nr_altura &gt;= nr_comprimento And nr_altura &lt;= nr_largura) Then nr_altura
+   When (nr_largura &gt;= nr_altura And nr_largura &lt;= nr_comprimento) Or (nr_largura &gt;= nr_comprimento And nr_largura &lt;= nr_altura) Then nr_largura
+   else nr_comprimento  end) &lt;= 0.28 AND
+             (Case When nr_altura &lt; nr_largura And nr_altura &lt; nr_comprimento Then nr_altura
+             When nr_largura &lt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.20 THEN 'G' ELSE 'NE' END AS elegivel_g</t>
+  </si>
+  <si>
+    <t>elegivel_g</t>
+  </si>
+  <si>
+    <t>CASE WHEN (Case When nr_altura &gt; nr_largura And nr_altura &gt; nr_comprimento Then nr_altura
+             When nr_largura &gt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.55 AND 
+             (Case When (nr_altura &gt;= nr_largura And nr_altura &lt;= nr_comprimento) Or (nr_altura &gt;= nr_comprimento And nr_altura &lt;= nr_largura) Then nr_altura
+   When (nr_largura &gt;= nr_altura And nr_largura &lt;= nr_comprimento) Or (nr_largura &gt;= nr_comprimento And nr_largura &lt;= nr_altura) Then nr_largura
+   else nr_comprimento  end) &lt;= 0.28 AND
+             (Case When nr_altura &lt; nr_largura And nr_altura &lt; nr_comprimento Then nr_altura
+             When nr_largura &lt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.15 THEN 'M' ELSE 'NE' END AS elegivel_m</t>
+  </si>
+  <si>
+    <t>elegivel_m</t>
+  </si>
+  <si>
+    <t>CASE WHEN (Case When nr_altura &gt; nr_largura And nr_altura &gt; nr_comprimento Then nr_altura
+             When nr_largura &gt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.55 AND 
+             (Case When (nr_altura &gt;= nr_largura And nr_altura &lt;= nr_comprimento) Or (nr_altura &gt;= nr_comprimento And nr_altura &lt;= nr_largura) Then nr_altura
+   When (nr_largura &gt;= nr_altura And nr_largura &lt;= nr_comprimento) Or (nr_largura &gt;= nr_comprimento And nr_largura &lt;= nr_altura) Then nr_largura
+   else nr_comprimento  end) &lt;= 0.28 AND
+             (Case When nr_altura &lt; nr_largura And nr_altura &lt; nr_comprimento Then nr_altura
+             When nr_largura &lt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.10 THEN 'P' ELSE 'NE' END AS elegivel_p</t>
+  </si>
+  <si>
+    <t>elegivel_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      CASE WHEN (Case When nr_altura &gt; nr_largura And nr_altura &gt; nr_comprimento Then nr_altura
+             When nr_largura &gt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.55 AND 
+             (Case When (nr_altura &gt;= nr_largura And nr_altura &lt;= nr_comprimento) Or (nr_altura &gt;= nr_comprimento And nr_altura &lt;= nr_largura) Then nr_altura
+   When (nr_largura &gt;= nr_altura And nr_largura &lt;= nr_comprimento) Or (nr_largura &gt;= nr_comprimento And nr_largura &lt;= nr_altura) Then nr_largura
+   else nr_comprimento  end) &lt;= 0.28 AND
+             (Case When nr_altura &lt; nr_largura And nr_altura &lt; nr_comprimento Then nr_altura
+             When nr_largura &lt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.06 THEN 'PP' ELSE 'NE' END AS elegivel_pp, </t>
+  </si>
+  <si>
+    <t>elegivel_pp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      CASE WHEN (Case When nr_altura &gt; nr_largura And nr_altura &gt; nr_comprimento Then nr_altura
+             When nr_largura &gt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.90 AND 
+             (Case When (nr_altura &gt;= nr_largura And nr_altura &lt;= nr_comprimento) Or (nr_altura &gt;= nr_comprimento And nr_altura &lt;= nr_largura) Then nr_altura
+   When (nr_largura &gt;= nr_altura And nr_largura &lt;= nr_comprimento) Or (nr_largura &gt;= nr_comprimento And nr_largura &lt;= nr_altura) Then nr_largura
+   else nr_comprimento  end) &lt;= 0.65 AND
+             (Case When nr_altura &lt; nr_largura And nr_altura &lt; nr_comprimento Then nr_altura
+             When nr_largura &lt; nr_comprimento Then nr_largura Else nr_comprimento End) &lt;= 0.35 THEN 'RetiraLoja' ELSE 'NE' END AS elegivel_retiraloja</t>
+  </si>
+  <si>
+    <t>elegivel_retiraloja</t>
+  </si>
+  <si>
+    <t>ods_sige_extranet_fornecedores</t>
+  </si>
+  <si>
+    <t>where (c.nr_id_nr is not null or (c.nr_id_nr is null and id_documento in('FS','FT')))</t>
+  </si>
+  <si>
+    <t>ods_sige_extranet_fornecedores_liquidado</t>
+  </si>
+  <si>
+    <t>and (c.nr_id_nr is not null or (c.nr_id_nr is null and id_documento in('FS','FT')))</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.fact_orders_today</t>
+  </si>
+  <si>
+    <t>where nr_id_unidade_negocio NOT IN (7, 11, 6, 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AND b.nr_id_product_type = 1</t>
+  </si>
+  <si>
+    <t>nr_id_product_type</t>
+  </si>
+  <si>
+    <t>ods_relatorio_obselescencia</t>
+  </si>
+  <si>
+    <t>case when FlagSkuProduzido = 1 then 'Sim' else 'Não' end as FlagSkuProduzido,</t>
+  </si>
+  <si>
+    <t>case when kit_loja = 1 then 'Sim' else 'Não' end as kit_loja,</t>
+  </si>
+  <si>
+    <t>case when Kit_Wms = 1 then 'Sim' else 'Não' end as Kit_Wms,</t>
+  </si>
+  <si>
+    <t>case when flagativa_sku_PF = 1 then 'Sim' else 'Não' end as flagativa_sku_PF,</t>
+  </si>
+  <si>
+    <t>case when flagativa_produto_PF = 1 then 'Sim' else 'Não' end as flagativa_produto_PF,</t>
+  </si>
+  <si>
+    <t>case when flagativa_sku_EX = 1 then 'Sim' else 'Não' end as flagativa_sku_EX,</t>
+  </si>
+  <si>
+    <t>case when flagativa_produto_EX = 1 then 'Sim' else 'Não' end as flagativa_produto_EX,</t>
+  </si>
+  <si>
+    <t>case when flagativa_sku_CB = 1 then 'Sim' else 'Não' end as flagativa_sku_CB,</t>
+  </si>
+  <si>
+    <t>case when flagativa_produto_CB = 1 then 'Sim' else 'Não' end as flagativa_produto_CB,</t>
+  </si>
+  <si>
+    <t>FlagSkuProduzido</t>
+  </si>
+  <si>
+    <t>kit_loja</t>
+  </si>
+  <si>
+    <t>Kit_Wms</t>
+  </si>
+  <si>
+    <t>flagativa_sku_PF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flagativa_produto_PF </t>
+  </si>
+  <si>
+    <t>flagativa_sku_EX</t>
+  </si>
+  <si>
+    <t>flagativa_produto_EX</t>
+  </si>
+  <si>
+    <t>flagativa_sku_CB</t>
+  </si>
+  <si>
+    <t>flagativa_produto_CB</t>
+  </si>
+  <si>
+    <t>ods_relatorio_obselescencia_tempo</t>
+  </si>
+  <si>
+    <t>Tempo_estoque</t>
+  </si>
+  <si>
+    <t>case when flag_dias = 1 then 'Até 180 dias' else 'Igual ou acima de 180 dias' end as Tempo_estoque,</t>
+  </si>
+  <si>
+    <t>ods_relatorio_q4</t>
+  </si>
+  <si>
+    <t>case when flagativa_produto_CB = 1 then 'Sim' else 'Não' end as flagativa_produto_CB</t>
+  </si>
+  <si>
+    <t>dentro_meta</t>
+  </si>
+  <si>
+    <t>case when cast(cobertura_sku as decimal(15,1)) &lt;= dias_cobertura then 'Sim' else 'Não' end as dentro_meta</t>
+  </si>
+  <si>
+    <t>isnull(cast(a.fl_forcado as varchar(15)),'Sem Instância') as fl_forcado,</t>
+  </si>
+  <si>
+    <t>isnull(cast(a.ds_processo as varchar(30)),'Sem Instância') as ds_processo,</t>
+  </si>
+  <si>
+    <t>isnull(cast(a.ds_motivo as varchar(100)),'Sem Instância') as ds_motivo,</t>
+  </si>
+  <si>
+    <t>isnull(cast(a.ds_categoria as varchar(100)),'Sem Instância') as ds_categoria,</t>
+  </si>
+  <si>
+    <t>ods_relatorio_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>ds_processo</t>
+  </si>
+  <si>
+    <t>ds_motivo</t>
+  </si>
+  <si>
+    <t>ds_categoria</t>
+  </si>
+  <si>
+    <t>mis_relatorio.dbo.rpt_sac_tarefas_n2</t>
+  </si>
+  <si>
+    <t>where (a.nr_dt_data_registro &gt;= 20130101  AND a.nr_dt_data_registro &lt;= 20140631)</t>
+  </si>
+  <si>
+    <t>nr_dt_data_registro</t>
+  </si>
+  <si>
+    <t>AND (a.nr_dt_data_situacao &gt;= 20130101 AND a.nr_dt_data_situacao &lt;= 20140631)</t>
+  </si>
+  <si>
+    <t>nr_dt_data_situacao</t>
+  </si>
+  <si>
+    <t>rpt_relatorio_sintetico3_Obsol</t>
+  </si>
+  <si>
+    <t>rpt_relatorio_sintetico3_q4</t>
+  </si>
+  <si>
+    <t>case when flagativa_produto_CB = 1 then 'Sim' else 'Não' end as flagativa_produto_CB,ds_tipo</t>
+  </si>
+  <si>
+    <t>ods_planilhao_ruptura</t>
+  </si>
+  <si>
+    <t>produto_xd</t>
+  </si>
+  <si>
+    <t>isnull(B.produto_xd,'SCC') as ProdutoXD</t>
+  </si>
+  <si>
+    <t>ods_tb_planilhao</t>
+  </si>
+  <si>
+    <t>case when A.yn_ExibeExtra = 1 then 'Sim' else 'Não' end as ExibeExtra,</t>
+  </si>
+  <si>
+    <t>case when A.yn_ExibeCB = 1 then 'Sim' else 'Não' end as ExibeCB,</t>
+  </si>
+  <si>
+    <t>case when A.yn_ExibePF = 1 then 'Sim' else 'Não' end as ExibePF</t>
+  </si>
+  <si>
+    <t>case when A.yn_ExibeCB = 1 then 'Sim' else 'Não' end as ExibeCB</t>
+  </si>
+  <si>
+    <t>ExibeExtra</t>
+  </si>
+  <si>
+    <t>ExibeCB</t>
+  </si>
+  <si>
+    <t>ExibePF</t>
+  </si>
+  <si>
+    <t>ods_planilhao_ruptura_filial_10</t>
+  </si>
+  <si>
+    <t>mis_staging.dbo.stg_planilhao_ruptura</t>
+  </si>
+  <si>
+    <t>case when A.yn_ExibePF = 1 then 'Sim' else 'Não' end as ExibePF,</t>
+  </si>
+  <si>
+    <t>and B.planilhao = 'filial 12'</t>
+  </si>
+  <si>
+    <t>planilhao</t>
+  </si>
+  <si>
+    <t>and B.planilhao = 'filial 16'</t>
+  </si>
+  <si>
+    <t>ods_planilhao_ruptura_sem_filial_10</t>
+  </si>
+  <si>
+    <t>log.rpt_logistica_formulario_troca</t>
+  </si>
+  <si>
+    <t>WHERE     (nr_dt_data_protocolo &gt;= 20130101)</t>
+  </si>
+  <si>
+    <t>nr_dt_data_protocolo</t>
+  </si>
+  <si>
+    <t>mis_dw..ods_ordersweb orders</t>
+  </si>
+  <si>
+    <t>mis_dw..ods_ordersweb_transicao</t>
+  </si>
+  <si>
+    <t>mis_relatorio.fin.ods_cap_reembolso</t>
+  </si>
+  <si>
+    <t>case when ds_situacao = 'A' then 'Aberto'
+  when ds_situacao = 'C' then 'Cancelado'
+  when ds_situacao = 'L' then 'Liquidado'
+  end as Situacao</t>
+  </si>
+  <si>
+    <t>Situacao</t>
+  </si>
+  <si>
+    <t>ds_unidade_negocio</t>
+  </si>
+  <si>
+    <t>case when b.nr_id_unidade_negocio IS null then 'Não Informado' else b.ds_unidade_negocio end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case when b.nr_id_unidade_negocio IS null then 99 else a.nr_id_unidade_negocio end </t>
+  </si>
+  <si>
+    <t>mis_ods.fin.ods_sige_meio_pagamento</t>
+  </si>
+  <si>
+    <t>isnull(mp.ds_meio_pagamento,'Não Informado') as ds_meio_pagamento,</t>
+  </si>
+  <si>
+    <t>ds_meio_pagamento</t>
+  </si>
+  <si>
+    <t>isnull(a.ds_canal_venda,'N/I') as ds_canal_venda</t>
+  </si>
+  <si>
+    <t>mis_ods.mkpl.ods_ordersweb_transicao</t>
+  </si>
+  <si>
+    <t>WHERE  (ynRegistroValido = 0)</t>
+  </si>
+  <si>
+    <t>mis_ods.mkpl.ods_ordersweb</t>
+  </si>
+  <si>
+    <t>mis_ods.com.ods_gestao_icms</t>
+  </si>
+  <si>
+    <t>where yn_nota_cancelada = 0</t>
+  </si>
+  <si>
+    <t>yn_nota_cancelada</t>
+  </si>
+  <si>
+    <t>mis_ods.com.ods_metas_parceiro_b2b</t>
+  </si>
+  <si>
+    <t>nr_unidade_negocio</t>
+  </si>
+  <si>
+    <t>and a.nr_unidade_negocio in (2,6,11)</t>
+  </si>
+  <si>
+    <t>mis_Dw..dim_product</t>
+  </si>
+  <si>
+    <t>and b.ds_product_type = 'Produto'</t>
+  </si>
+  <si>
+    <t>mis_dw..vw_fact_fatdev</t>
+  </si>
+  <si>
+    <t>where a.DT_DATA_FATURAMENTO &gt;= 20120901</t>
+  </si>
+  <si>
+    <t>and a.nr_fatdev = 1</t>
+  </si>
+  <si>
+    <t>DT_DATA_FATURAMENTO</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.dim_meio_pagamento</t>
+  </si>
+  <si>
+    <t>WHERE      (DS_MEIO_PAGTO LIKE '%livre%')))</t>
+  </si>
+  <si>
+    <t>ds_meio_pagto</t>
+  </si>
+  <si>
+    <t>trans.fact_transportes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND (a.nr_id_transportadora NOT IN (9358108000206, 9358108000397, 9521848000130, 9358108001016)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND (a.nr_dt_data_faturamento_pedido &gt;= 20140401) AND (a.nr_dt_data_faturamento_pedido &lt;= 20140531) </t>
+  </si>
+  <si>
+    <t>nr_dt_data_faturamento_pedido</t>
+  </si>
+  <si>
+    <t>nr_id_transportadora</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.dim_estabelecimento</t>
+  </si>
+  <si>
+    <t>AND (e.ds_apelido IN ('ALDEIA', 'FILIAL 06', 'TAMBORE'))</t>
+  </si>
+  <si>
+    <t>ds_apelido</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.dim_product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE     (a.ds_product_type = 'Produto') </t>
+  </si>
+  <si>
+    <t>AND (LOWER(RTRIM(LTRIM(a.ds_product))) &lt;&gt; 'teste')</t>
+  </si>
+  <si>
+    <t>ds_product</t>
+  </si>
+  <si>
+    <t>nesta view também tem um union all com campos fixos:SELECT -1,-1,'Não Informado',-1,'Não Informado',-1,'Não Informado',-1,'Não Informado',-1,'Não Informado'</t>
+  </si>
+  <si>
+    <t>log.fact_pontualidade</t>
+  </si>
+  <si>
+    <t>WHERE     a.nr_id_mega_rota IN (1, 3)</t>
+  </si>
+  <si>
+    <t>nr_id_mega_rota</t>
+  </si>
+  <si>
+    <t>mkpl.fact_ruptura_vitrine</t>
+  </si>
+  <si>
+    <t>where yn_esta_visivel = 1</t>
+  </si>
+  <si>
+    <t>yn_esta_visivel</t>
+  </si>
+  <si>
+    <t>mis_dw..vw_fact_approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a.ds_status != 'C'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and a.ynListaCasamento = 0</t>
+  </si>
+  <si>
+    <t>ynListaCasamento</t>
+  </si>
+  <si>
+    <t>mis_shared_dimension.dim.dim_produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and b.ds_item = 'Produto'</t>
+  </si>
+  <si>
+    <t>ds_item</t>
+  </si>
+  <si>
+    <t>nesta view, no terceiro union, deixa fixo o label "L" no campo ds_status</t>
+  </si>
+  <si>
+    <t>mkt.fact_cpc_hora</t>
+  </si>
+  <si>
+    <t>where  nr_date &gt;= 20140101</t>
+  </si>
+  <si>
+    <t>nr_date</t>
+  </si>
+  <si>
+    <t>nesta view está fixo o label "L" no campo ds_status e o número 2 em nr_fonte</t>
   </si>
 </sst>
 </file>
@@ -957,11 +1740,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -974,9 +1754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -996,8 +1773,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,13 +1792,25 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1051,18 +1847,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1096,16 +1880,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G191" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G191"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Database" dataDxfId="3"/>
-    <tableColumn id="2" name="Schema" dataDxfId="2"/>
+    <tableColumn id="1" name="Database" dataDxfId="2"/>
+    <tableColumn id="2" name="Schema" dataDxfId="1"/>
     <tableColumn id="3" name="View" dataDxfId="0"/>
-    <tableColumn id="4" name="Tabela Fisica" dataDxfId="1"/>
-    <tableColumn id="5" name="Atributo Condicional Hard-Code" dataDxfId="8"/>
-    <tableColumn id="6" name="Script Hard-Code" dataDxfId="7"/>
-    <tableColumn id="7" name="Observação" dataDxfId="6"/>
+    <tableColumn id="4" name="Tabela Fisica" dataDxfId="6"/>
+    <tableColumn id="5" name="Atributo Condicional Hard-Code" dataDxfId="5"/>
+    <tableColumn id="6" name="Script Hard-Code" dataDxfId="4"/>
+    <tableColumn id="7" name="Observação" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1398,830 +2182,830 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="3.140625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>232</v>
+      <c r="E1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="B43" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="B44" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="B45" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2238,7 +3022,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2255,7 +3039,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2272,7 +3056,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2289,7 +3073,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2306,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2323,7 +3107,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2340,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2357,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2374,7 +3158,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2391,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2408,7 +3192,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2425,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2442,7 +3226,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2459,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2476,7 +3260,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2493,7 +3277,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2510,7 +3294,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2527,7 +3311,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2544,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2561,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2578,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2595,7 +3379,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2612,7 +3396,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2629,7 +3413,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2646,7 +3430,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2663,7 +3447,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2680,7 +3464,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2697,7 +3481,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2714,7 +3498,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2731,7 +3515,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2748,7 +3532,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2765,7 +3549,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2782,7 +3566,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2799,7 +3583,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2816,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2833,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2850,7 +3634,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1">
@@ -2867,7 +3651,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2884,7 +3668,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2901,7 +3685,7 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:6" hidden="1">
@@ -2918,7 +3702,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2935,7 +3719,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2952,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2969,7 +3753,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2986,7 +3770,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3003,7 +3787,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3020,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3037,7 +3821,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3054,7 +3838,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3071,7 +3855,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3088,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3105,7 +3889,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3122,7 +3906,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3139,7 +3923,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3156,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:6" hidden="1">
@@ -3173,7 +3957,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:6" hidden="1">
@@ -3190,7 +3974,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:6" hidden="1">
@@ -3207,7 +3991,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3224,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3241,7 +4025,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3258,7 +4042,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3275,7 +4059,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:6" hidden="1">
@@ -3292,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:6" hidden="1">
@@ -3309,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3326,7 +4110,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3343,7 +4127,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3360,10 +4144,10 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -3376,8 +4160,11 @@
       <c r="D113" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="F113" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -3390,8 +4177,11 @@
       <c r="D114" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="F114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -3404,8 +4194,11 @@
       <c r="D115" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="F115" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -3418,8 +4211,11 @@
       <c r="D116" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="F116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -3432,8 +4228,11 @@
       <c r="D117" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="F117" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -3446,8 +4245,11 @@
       <c r="D118" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="F118" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -3460,8 +4262,11 @@
       <c r="D119" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="F119" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -3474,8 +4279,11 @@
       <c r="D120" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="F120" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>21</v>
       </c>
@@ -3488,8 +4296,11 @@
       <c r="D121" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="F121" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>21</v>
       </c>
@@ -3502,8 +4313,11 @@
       <c r="D122" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="F122" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -3516,8 +4330,11 @@
       <c r="D123" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="F123" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -3530,8 +4347,11 @@
       <c r="D124" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="F124" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -3544,8 +4364,11 @@
       <c r="D125" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="F125" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -3558,8 +4381,11 @@
       <c r="D126" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="F126" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -3572,8 +4398,11 @@
       <c r="D127" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="F127" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -3586,8 +4415,11 @@
       <c r="D128" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="F128" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -3600,8 +4432,11 @@
       <c r="D129" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="F129" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -3614,8 +4449,11 @@
       <c r="D130" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="F130" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -3628,8 +4466,11 @@
       <c r="D131" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="F131" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -3642,10 +4483,13 @@
       <c r="D132" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="F132" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -3656,10 +4500,13 @@
       <c r="D133" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="F133" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -3670,10 +4517,13 @@
       <c r="D134" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="F134" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -3684,10 +4534,13 @@
       <c r="D135" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="F135" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -3698,10 +4551,13 @@
       <c r="D136" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="F136" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -3712,10 +4568,13 @@
       <c r="D137" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="F137" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -3726,24 +4585,30 @@
       <c r="D138" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="F138" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B139" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139" t="s">
         <v>188</v>
       </c>
-      <c r="C139" t="s">
-        <v>189</v>
-      </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="F139" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B140" t="s">
         <v>100</v>
@@ -3754,10 +4619,13 @@
       <c r="D140" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="F140" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B141" t="s">
         <v>100</v>
@@ -3768,10 +4636,13 @@
       <c r="D141" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="F141" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B142" t="s">
         <v>100</v>
@@ -3782,10 +4653,13 @@
       <c r="D142" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="F142" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B143" t="s">
         <v>100</v>
@@ -3796,10 +4670,13 @@
       <c r="D143" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="F143" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B144" t="s">
         <v>100</v>
@@ -3810,10 +4687,13 @@
       <c r="D144" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="F144" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B145" t="s">
         <v>100</v>
@@ -3824,24 +4704,30 @@
       <c r="D145" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="F145" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B146" t="s">
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="F146" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
@@ -3852,10 +4738,13 @@
       <c r="D147" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="F147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B148" t="s">
         <v>13</v>
@@ -3866,24 +4755,30 @@
       <c r="D148" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="F148" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B149" t="s">
         <v>160</v>
       </c>
       <c r="C149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="F149" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="B150" t="s">
         <v>107</v>
@@ -3894,8 +4789,11 @@
       <c r="D150" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="F150" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>109</v>
       </c>
@@ -3908,8 +4806,11 @@
       <c r="D151" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="F151" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>109</v>
       </c>
@@ -3917,13 +4818,16 @@
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="F152" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>109</v>
       </c>
@@ -3936,8 +4840,11 @@
       <c r="D153" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="F153" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -3950,8 +4857,11 @@
       <c r="D154" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="F154" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>109</v>
       </c>
@@ -3959,27 +4869,33 @@
         <v>10</v>
       </c>
       <c r="C155" t="s">
+        <v>192</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>109</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
         <v>193</v>
       </c>
-      <c r="D155" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>109</v>
-      </c>
-      <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" t="s">
-        <v>194</v>
-      </c>
       <c r="D156" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="F156" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>109</v>
       </c>
@@ -3992,8 +4908,11 @@
       <c r="D157" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="F157" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>109</v>
       </c>
@@ -4006,8 +4925,11 @@
       <c r="D158" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="F158" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>109</v>
       </c>
@@ -4015,41 +4937,50 @@
         <v>10</v>
       </c>
       <c r="C159" t="s">
+        <v>194</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>109</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
         <v>195</v>
       </c>
-      <c r="D159" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>109</v>
-      </c>
-      <c r="B160" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>109</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
         <v>196</v>
       </c>
-      <c r="D160" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>109</v>
-      </c>
-      <c r="B161" t="s">
-        <v>10</v>
-      </c>
-      <c r="C161" t="s">
-        <v>197</v>
-      </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="F161" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>109</v>
       </c>
@@ -4062,8 +4993,11 @@
       <c r="D162" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="F162" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>109</v>
       </c>
@@ -4076,8 +5010,11 @@
       <c r="D163" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="F163" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>109</v>
       </c>
@@ -4090,8 +5027,11 @@
       <c r="D164" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="F164" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>109</v>
       </c>
@@ -4104,8 +5044,11 @@
       <c r="D165" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="F165" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>109</v>
       </c>
@@ -4118,8 +5061,11 @@
       <c r="D166" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="F166" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>109</v>
       </c>
@@ -4127,13 +5073,16 @@
         <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="F167" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>109</v>
       </c>
@@ -4146,8 +5095,11 @@
       <c r="D168" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="F168" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>109</v>
       </c>
@@ -4160,8 +5112,11 @@
       <c r="D169" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="F169" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>109</v>
       </c>
@@ -4169,83 +5124,101 @@
         <v>10</v>
       </c>
       <c r="C170" t="s">
+        <v>198</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>109</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
         <v>199</v>
       </c>
-      <c r="D170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>109</v>
-      </c>
-      <c r="B171" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>109</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" t="s">
         <v>200</v>
       </c>
-      <c r="D171" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>109</v>
-      </c>
-      <c r="B172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>109</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
         <v>201</v>
       </c>
-      <c r="D172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>109</v>
-      </c>
-      <c r="B173" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>109</v>
+      </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
         <v>202</v>
       </c>
-      <c r="D173" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>109</v>
-      </c>
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>109</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
         <v>203</v>
       </c>
-      <c r="D174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>109</v>
-      </c>
-      <c r="B175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175" t="s">
-        <v>204</v>
-      </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="F175" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>109</v>
       </c>
@@ -4258,8 +5231,11 @@
       <c r="D176" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="F176" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>109</v>
       </c>
@@ -4267,41 +5243,50 @@
         <v>10</v>
       </c>
       <c r="C177" t="s">
+        <v>204</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>109</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" t="s">
         <v>205</v>
       </c>
-      <c r="D177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>109</v>
-      </c>
-      <c r="B178" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>109</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
         <v>206</v>
       </c>
-      <c r="D178" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>109</v>
-      </c>
-      <c r="B179" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" t="s">
-        <v>207</v>
-      </c>
       <c r="D179" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="F179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>109</v>
       </c>
@@ -4314,8 +5299,11 @@
       <c r="D180" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="F180" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>109</v>
       </c>
@@ -4323,55 +5311,67 @@
         <v>10</v>
       </c>
       <c r="C181" t="s">
+        <v>207</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>109</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
         <v>208</v>
       </c>
-      <c r="D181" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>109</v>
-      </c>
-      <c r="B182" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>109</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
         <v>209</v>
       </c>
-      <c r="D182" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>109</v>
-      </c>
-      <c r="B183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>109</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
         <v>210</v>
       </c>
-      <c r="D183" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>109</v>
-      </c>
-      <c r="B184" t="s">
-        <v>10</v>
-      </c>
-      <c r="C184" t="s">
-        <v>211</v>
-      </c>
       <c r="D184" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="F184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>109</v>
       </c>
@@ -4384,8 +5384,11 @@
       <c r="D185" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="F185" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>109</v>
       </c>
@@ -4398,8 +5401,11 @@
       <c r="D186" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="F186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>109</v>
       </c>
@@ -4407,27 +5413,33 @@
         <v>10</v>
       </c>
       <c r="C187" t="s">
+        <v>211</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>109</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
         <v>212</v>
       </c>
-      <c r="D187" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>109</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
-      </c>
-      <c r="C188" t="s">
-        <v>213</v>
-      </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="F188" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>109</v>
       </c>
@@ -4440,8 +5452,11 @@
       <c r="D189" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="F189" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>109</v>
       </c>
@@ -4454,8 +5469,11 @@
       <c r="D190" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="F190" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>109</v>
       </c>
@@ -4468,8 +5486,11 @@
       <c r="D191" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="F191" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>109</v>
       </c>
@@ -4482,8 +5503,11 @@
       <c r="D192" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="F192" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>109</v>
       </c>
@@ -4496,8 +5520,11 @@
       <c r="D193" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="F193" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>109</v>
       </c>
@@ -4510,8 +5537,11 @@
       <c r="D194" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="F194" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>109</v>
       </c>
@@ -4524,8 +5554,11 @@
       <c r="D195" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="F195" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>109</v>
       </c>
@@ -4538,8 +5571,11 @@
       <c r="D196" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="F196" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>109</v>
       </c>
@@ -4552,8 +5588,11 @@
       <c r="D197" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="F197" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>109</v>
       </c>
@@ -4566,8 +5605,11 @@
       <c r="D198" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="F198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>109</v>
       </c>
@@ -4580,8 +5622,11 @@
       <c r="D199" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="F199" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>109</v>
       </c>
@@ -4594,8 +5639,11 @@
       <c r="D200" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="F200" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>109</v>
       </c>
@@ -4608,8 +5656,11 @@
       <c r="D201" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="F201" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>109</v>
       </c>
@@ -4617,27 +5668,33 @@
         <v>10</v>
       </c>
       <c r="C202" t="s">
+        <v>213</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>109</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
         <v>214</v>
       </c>
-      <c r="D202" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
-        <v>109</v>
-      </c>
-      <c r="B203" t="s">
-        <v>10</v>
-      </c>
-      <c r="C203" t="s">
-        <v>215</v>
-      </c>
       <c r="D203" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="F203" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>109</v>
       </c>
@@ -4650,8 +5707,11 @@
       <c r="D204" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="F204" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>109</v>
       </c>
@@ -4664,8 +5724,11 @@
       <c r="D205" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="F205" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>109</v>
       </c>
@@ -4677,6 +5740,9 @@
       </c>
       <c r="D206" t="s">
         <v>7</v>
+      </c>
+      <c r="F206" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4689,482 +5755,3964 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A2" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="90">
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="75">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="45">
+      <c r="A21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="60">
+      <c r="A28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="60">
+      <c r="A31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="30">
+      <c r="A36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="45">
+      <c r="A42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="45">
+      <c r="A43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="45">
+      <c r="A52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="45">
+      <c r="A53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="45">
+      <c r="A54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="30">
+      <c r="A61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" ht="45">
+      <c r="A71" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" ht="30">
+      <c r="A84" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" ht="150">
+      <c r="A85" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" ht="150">
+      <c r="A86" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" ht="150">
+      <c r="A87" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" ht="150">
+      <c r="A88" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" ht="150">
+      <c r="A89" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" ht="150">
+      <c r="A90" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G121" s="11"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G130" s="11"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G139" s="11"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G140" s="11"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G143" s="11"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G144" s="11"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G147" s="11"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G151" s="11"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G152" s="11"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G156" s="11"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G157" s="11"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G160" s="11"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="G161" s="11"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G162" s="11"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G163" s="11"/>
+    </row>
+    <row r="164" spans="1:7" ht="60">
+      <c r="A164" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G164" s="11"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G165" s="11"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="G166" s="11"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G167" s="11"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="G168" s="11"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C169" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="G169" s="11"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C170" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G170" s="11"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="90">
-      <c r="A10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="75">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" ht="210">
-      <c r="A17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C171" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G171" s="11"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G172" s="11"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G173" s="11"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="E174" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="195">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="195">
-      <c r="A21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="F174" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="G174" s="11"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G175" s="11"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G176" s="11"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G177" s="11"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="G178" s="11"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G180" s="11"/>
+    </row>
+    <row r="181" spans="1:7" ht="60">
+      <c r="A181" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="G182" s="11"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="G183" s="11"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="F184" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="14"/>
+      <c r="G184" s="11"/>
+    </row>
+    <row r="185" spans="1:7" ht="30">
+      <c r="A185" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="G186" s="11"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="G188" s="11"/>
+    </row>
+    <row r="189" spans="1:7" ht="30">
+      <c r="A189" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
